--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Cntf-Cntfr.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Cntf-Cntfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,247 +525,929 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.02069761610641</v>
+        <v>0.5318900000000001</v>
       </c>
       <c r="H2">
-        <v>1.02069761610641</v>
+        <v>1.59567</v>
       </c>
       <c r="I2">
-        <v>0.2305620199336814</v>
+        <v>0.09379608663636632</v>
       </c>
       <c r="J2">
-        <v>0.2305620199336814</v>
+        <v>0.09379608663636631</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>6.66194176009091</v>
+        <v>0.1574556666666667</v>
       </c>
       <c r="N2">
-        <v>6.66194176009091</v>
+        <v>0.472367</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.02260121724956985</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.02260121724956985</v>
       </c>
       <c r="Q2">
-        <v>6.799828073164534</v>
+        <v>0.08374909454333335</v>
       </c>
       <c r="R2">
-        <v>6.799828073164534</v>
+        <v>0.75374185089</v>
       </c>
       <c r="S2">
-        <v>0.2305620199336814</v>
+        <v>0.002119905731227991</v>
       </c>
       <c r="T2">
-        <v>0.2305620199336814</v>
+        <v>0.00211990573122799</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.51921970437093</v>
+        <v>0.5318900000000001</v>
       </c>
       <c r="H3">
-        <v>1.51921970437093</v>
+        <v>1.59567</v>
       </c>
       <c r="I3">
-        <v>0.3431715311523711</v>
+        <v>0.09379608663636632</v>
       </c>
       <c r="J3">
-        <v>0.3431715311523711</v>
+        <v>0.09379608663636631</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.66194176009091</v>
+        <v>6.739756333333333</v>
       </c>
       <c r="N3">
-        <v>6.66194176009091</v>
+        <v>20.219269</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.9674259448617132</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.9674259448617132</v>
       </c>
       <c r="Q3">
-        <v>10.12095319130166</v>
+        <v>3.584808996136667</v>
       </c>
       <c r="R3">
-        <v>10.12095319130166</v>
+        <v>32.26328096523</v>
       </c>
       <c r="S3">
-        <v>0.3431715311523711</v>
+        <v>0.0907407677385178</v>
       </c>
       <c r="T3">
-        <v>0.3431715311523711</v>
+        <v>0.09074076773851779</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.20044886189076</v>
+        <v>0.5318900000000001</v>
       </c>
       <c r="H4">
-        <v>1.20044886189076</v>
+        <v>1.59567</v>
       </c>
       <c r="I4">
-        <v>0.2711654363222964</v>
+        <v>0.09379608663636632</v>
       </c>
       <c r="J4">
-        <v>0.2711654363222964</v>
+        <v>0.09379608663636631</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>6.66194176009091</v>
+        <v>0.06947766666666667</v>
       </c>
       <c r="N4">
-        <v>6.66194176009091</v>
+        <v>0.208433</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.00997283788871702</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.009972837888717018</v>
       </c>
       <c r="Q4">
-        <v>7.99732040388366</v>
+        <v>0.03695447612333334</v>
       </c>
       <c r="R4">
-        <v>7.99732040388366</v>
+        <v>0.3325902851100001</v>
       </c>
       <c r="S4">
-        <v>0.2711654363222964</v>
+        <v>0.0009354131666205382</v>
       </c>
       <c r="T4">
-        <v>0.2711654363222964</v>
+        <v>0.000935413166620538</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.686631882621105</v>
+        <v>1.130951</v>
       </c>
       <c r="H5">
-        <v>0.686631882621105</v>
+        <v>3.392853</v>
       </c>
       <c r="I5">
-        <v>0.1551010125916509</v>
+        <v>0.1994374362696894</v>
       </c>
       <c r="J5">
-        <v>0.1551010125916509</v>
+        <v>0.1994374362696894</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>6.66194176009091</v>
+        <v>0.1574556666666667</v>
       </c>
       <c r="N5">
-        <v>6.66194176009091</v>
+        <v>0.472367</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.02260121724956985</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.02260121724956985</v>
       </c>
       <c r="Q5">
-        <v>4.574301612643379</v>
+        <v>0.1780746436723333</v>
       </c>
       <c r="R5">
-        <v>4.574301612643379</v>
+        <v>1.602671793051</v>
       </c>
       <c r="S5">
-        <v>0.1551010125916509</v>
+        <v>0.004507528824828492</v>
       </c>
       <c r="T5">
-        <v>0.1551010125916509</v>
+        <v>0.004507528824828492</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1.130951</v>
+      </c>
+      <c r="H6">
+        <v>3.392853</v>
+      </c>
+      <c r="I6">
+        <v>0.1994374362696894</v>
+      </c>
+      <c r="J6">
+        <v>0.1994374362696894</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>6.739756333333333</v>
+      </c>
+      <c r="N6">
+        <v>20.219269</v>
+      </c>
+      <c r="O6">
+        <v>0.9674259448617132</v>
+      </c>
+      <c r="P6">
+        <v>0.9674259448617132</v>
+      </c>
+      <c r="Q6">
+        <v>7.622334164939667</v>
+      </c>
+      <c r="R6">
+        <v>68.601007484457</v>
+      </c>
+      <c r="S6">
+        <v>0.192940950224002</v>
+      </c>
+      <c r="T6">
+        <v>0.192940950224002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1.130951</v>
+      </c>
+      <c r="H7">
+        <v>3.392853</v>
+      </c>
+      <c r="I7">
+        <v>0.1994374362696894</v>
+      </c>
+      <c r="J7">
+        <v>0.1994374362696894</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.06947766666666667</v>
+      </c>
+      <c r="N7">
+        <v>0.208433</v>
+      </c>
+      <c r="O7">
+        <v>0.00997283788871702</v>
+      </c>
+      <c r="P7">
+        <v>0.009972837888717018</v>
+      </c>
+      <c r="Q7">
+        <v>0.07857583659433334</v>
+      </c>
+      <c r="R7">
+        <v>0.7071825293490001</v>
+      </c>
+      <c r="S7">
+        <v>0.001988957220858945</v>
+      </c>
+      <c r="T7">
+        <v>0.001988957220858944</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.543123333333333</v>
+      </c>
+      <c r="H8">
+        <v>4.62937</v>
+      </c>
+      <c r="I8">
+        <v>0.272121923450209</v>
+      </c>
+      <c r="J8">
+        <v>0.272121923450209</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.1574556666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.472367</v>
+      </c>
+      <c r="O8">
+        <v>0.02260121724956985</v>
+      </c>
+      <c r="P8">
+        <v>0.02260121724956985</v>
+      </c>
+      <c r="Q8">
+        <v>0.2429735131988889</v>
+      </c>
+      <c r="R8">
+        <v>2.18676161879</v>
+      </c>
+      <c r="S8">
+        <v>0.00615028671026899</v>
+      </c>
+      <c r="T8">
+        <v>0.00615028671026899</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.543123333333333</v>
+      </c>
+      <c r="H9">
+        <v>4.62937</v>
+      </c>
+      <c r="I9">
+        <v>0.272121923450209</v>
+      </c>
+      <c r="J9">
+        <v>0.272121923450209</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>6.739756333333333</v>
+      </c>
+      <c r="N9">
+        <v>20.219269</v>
+      </c>
+      <c r="O9">
+        <v>0.9674259448617132</v>
+      </c>
+      <c r="P9">
+        <v>0.9674259448617132</v>
+      </c>
+      <c r="Q9">
+        <v>10.40027525894778</v>
+      </c>
+      <c r="R9">
+        <v>93.60247733052999</v>
+      </c>
+      <c r="S9">
+        <v>0.2632578089114053</v>
+      </c>
+      <c r="T9">
+        <v>0.2632578089114053</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.543123333333333</v>
+      </c>
+      <c r="H10">
+        <v>4.62937</v>
+      </c>
+      <c r="I10">
+        <v>0.272121923450209</v>
+      </c>
+      <c r="J10">
+        <v>0.272121923450209</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.06947766666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.208433</v>
+      </c>
+      <c r="O10">
+        <v>0.00997283788871702</v>
+      </c>
+      <c r="P10">
+        <v>0.009972837888717018</v>
+      </c>
+      <c r="Q10">
+        <v>0.1072126085788889</v>
+      </c>
+      <c r="R10">
+        <v>0.96491347721</v>
+      </c>
+      <c r="S10">
+        <v>0.002713827828534797</v>
+      </c>
+      <c r="T10">
+        <v>0.002713827828534797</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.632815666666667</v>
+      </c>
+      <c r="H11">
+        <v>4.898447</v>
+      </c>
+      <c r="I11">
+        <v>0.2879387086275035</v>
+      </c>
+      <c r="J11">
+        <v>0.2879387086275035</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.1574556666666667</v>
+      </c>
+      <c r="N11">
+        <v>0.472367</v>
+      </c>
+      <c r="O11">
+        <v>0.02260121724956985</v>
+      </c>
+      <c r="P11">
+        <v>0.02260121724956985</v>
+      </c>
+      <c r="Q11">
+        <v>0.2570960793387778</v>
+      </c>
+      <c r="R11">
+        <v>2.313864714049</v>
+      </c>
+      <c r="S11">
+        <v>0.006507765308250799</v>
+      </c>
+      <c r="T11">
+        <v>0.006507765308250799</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.632815666666667</v>
+      </c>
+      <c r="H12">
+        <v>4.898447</v>
+      </c>
+      <c r="I12">
+        <v>0.2879387086275035</v>
+      </c>
+      <c r="J12">
+        <v>0.2879387086275035</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>6.739756333333333</v>
+      </c>
+      <c r="N12">
+        <v>20.219269</v>
+      </c>
+      <c r="O12">
+        <v>0.9674259448617132</v>
+      </c>
+      <c r="P12">
+        <v>0.9674259448617132</v>
+      </c>
+      <c r="Q12">
+        <v>11.00477973058256</v>
+      </c>
+      <c r="R12">
+        <v>99.043017575243</v>
+      </c>
+      <c r="S12">
+        <v>0.2785593772562241</v>
+      </c>
+      <c r="T12">
+        <v>0.2785593772562241</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.632815666666667</v>
+      </c>
+      <c r="H13">
+        <v>4.898447</v>
+      </c>
+      <c r="I13">
+        <v>0.2879387086275035</v>
+      </c>
+      <c r="J13">
+        <v>0.2879387086275035</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.06947766666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.208433</v>
+      </c>
+      <c r="O13">
+        <v>0.00997283788871702</v>
+      </c>
+      <c r="P13">
+        <v>0.009972837888717018</v>
+      </c>
+      <c r="Q13">
+        <v>0.1134442226167778</v>
+      </c>
+      <c r="R13">
+        <v>1.020998003551</v>
+      </c>
+      <c r="S13">
+        <v>0.002871566063028618</v>
+      </c>
+      <c r="T13">
+        <v>0.002871566063028617</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.8319256666666667</v>
+      </c>
+      <c r="H14">
+        <v>2.495777</v>
+      </c>
+      <c r="I14">
+        <v>0.1467058450162317</v>
+      </c>
+      <c r="J14">
+        <v>0.1467058450162317</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.1574556666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.472367</v>
+      </c>
+      <c r="O14">
+        <v>0.02260121724956985</v>
+      </c>
+      <c r="P14">
+        <v>0.02260121724956985</v>
+      </c>
+      <c r="Q14">
+        <v>0.1309914104621111</v>
+      </c>
+      <c r="R14">
+        <v>1.178922694159</v>
+      </c>
+      <c r="S14">
+        <v>0.003315730674993576</v>
+      </c>
+      <c r="T14">
+        <v>0.003315730674993576</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.8319256666666667</v>
+      </c>
+      <c r="H15">
+        <v>2.495777</v>
+      </c>
+      <c r="I15">
+        <v>0.1467058450162317</v>
+      </c>
+      <c r="J15">
+        <v>0.1467058450162317</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>6.739756333333333</v>
+      </c>
+      <c r="N15">
+        <v>20.219269</v>
+      </c>
+      <c r="O15">
+        <v>0.9674259448617132</v>
+      </c>
+      <c r="P15">
+        <v>0.9674259448617132</v>
+      </c>
+      <c r="Q15">
+        <v>5.606976280779222</v>
+      </c>
+      <c r="R15">
+        <v>50.462786527013</v>
+      </c>
+      <c r="S15">
+        <v>0.141927040731564</v>
+      </c>
+      <c r="T15">
+        <v>0.141927040731564</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.8319256666666667</v>
+      </c>
+      <c r="H16">
+        <v>2.495777</v>
+      </c>
+      <c r="I16">
+        <v>0.1467058450162317</v>
+      </c>
+      <c r="J16">
+        <v>0.1467058450162317</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.06947766666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.208433</v>
+      </c>
+      <c r="O16">
+        <v>0.00997283788871702</v>
+      </c>
+      <c r="P16">
+        <v>0.009972837888717018</v>
+      </c>
+      <c r="Q16">
+        <v>0.05780025416011111</v>
+      </c>
+      <c r="R16">
+        <v>0.5202022874409999</v>
+      </c>
+      <c r="S16">
+        <v>0.001463073609674122</v>
+      </c>
+      <c r="T16">
+        <v>0.001463073609674122</v>
       </c>
     </row>
   </sheetData>
